--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Q1</t>
   </si>
   <si>
-    <t>UI5</t>
-  </si>
-  <si>
-    <t>UI6</t>
-  </si>
-  <si>
     <t>UI7</t>
   </si>
   <si>
@@ -42,9 +36,6 @@
     <t>UI10</t>
   </si>
   <si>
-    <t>UI11</t>
-  </si>
-  <si>
     <t>UI2</t>
   </si>
   <si>
@@ -72,27 +63,6 @@
     <t>UO2</t>
   </si>
   <si>
-    <t>UO3</t>
-  </si>
-  <si>
-    <t>UO4</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>UO5</t>
-  </si>
-  <si>
-    <t>UO6</t>
-  </si>
-  <si>
-    <t>UO7</t>
-  </si>
-  <si>
-    <t>UO8</t>
-  </si>
-  <si>
     <t>Q4</t>
   </si>
   <si>
@@ -114,70 +84,55 @@
     <t>Т1</t>
   </si>
   <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>Т6</t>
-  </si>
-  <si>
     <t>S1F</t>
   </si>
   <si>
-    <t>Y3</t>
-  </si>
-  <si>
     <t>PDS1</t>
   </si>
   <si>
+    <t>HLG1</t>
+  </si>
+  <si>
+    <t>HLR1</t>
+  </si>
+  <si>
+    <t>KM1</t>
+  </si>
+  <si>
+    <t>PDS3</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>2S1</t>
+  </si>
+  <si>
+    <t>1S1</t>
+  </si>
+  <si>
+    <t>EW1</t>
+  </si>
+  <si>
+    <t>EW6</t>
+  </si>
+  <si>
     <t>PDS5</t>
   </si>
   <si>
-    <t>HL3</t>
-  </si>
-  <si>
-    <t>HL4</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>PDS2</t>
-  </si>
-  <si>
-    <t>TS1</t>
-  </si>
-  <si>
-    <t>HL1</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>Y4</t>
-  </si>
-  <si>
-    <t>HL5</t>
-  </si>
-  <si>
-    <t>HL6</t>
-  </si>
-  <si>
-    <t>UI12</t>
-  </si>
-  <si>
-    <t>HL2</t>
-  </si>
-  <si>
-    <t>2Y2</t>
-  </si>
-  <si>
-    <t>Т7</t>
-  </si>
-  <si>
-    <t>2Y1</t>
-  </si>
-  <si>
-    <t>4Y1</t>
+    <t>TK1</t>
+  </si>
+  <si>
+    <t>EA1</t>
+  </si>
+  <si>
+    <t>EA6</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E1</t>
   </si>
 </sst>
 </file>
@@ -499,254 +454,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A2:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Q1</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t>E1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>UO3</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>UO4</t>
+  </si>
+  <si>
+    <t>Y1</t>
   </si>
 </sst>
 </file>
@@ -457,7 +475,7 @@
   <dimension ref="A2:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +500,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -644,10 +667,20 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Q1</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Y1</t>
+  </si>
+  <si>
+    <t>9U1</t>
+  </si>
+  <si>
+    <t>UO5</t>
   </si>
 </sst>
 </file>
@@ -474,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +689,12 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Q1</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>Y1</t>
-  </si>
-  <si>
-    <t>9U1</t>
-  </si>
-  <si>
-    <t>UO5</t>
   </si>
 </sst>
 </file>
@@ -480,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,12 +683,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -120,9 +120,6 @@
     <t>PDS5</t>
   </si>
   <si>
-    <t>TK1</t>
-  </si>
-  <si>
     <t>EA1</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Y1</t>
+  </si>
+  <si>
+    <t>PGS1</t>
   </si>
 </sst>
 </file>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,10 +501,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,23 +663,23 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Q1</t>
   </si>
@@ -33,124 +33,127 @@
     <t>UI9</t>
   </si>
   <si>
+    <t>UI2</t>
+  </si>
+  <si>
+    <t>UI13</t>
+  </si>
+  <si>
+    <t>UI14</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>UI15</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>UO1</t>
+  </si>
+  <si>
+    <t>UO2</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>UI1</t>
+  </si>
+  <si>
+    <t>UI3</t>
+  </si>
+  <si>
+    <t>UI4</t>
+  </si>
+  <si>
+    <t>1Y1</t>
+  </si>
+  <si>
+    <t>Т1</t>
+  </si>
+  <si>
+    <t>S1F</t>
+  </si>
+  <si>
+    <t>PDS1</t>
+  </si>
+  <si>
+    <t>HLG1</t>
+  </si>
+  <si>
+    <t>HLR1</t>
+  </si>
+  <si>
+    <t>KM1</t>
+  </si>
+  <si>
+    <t>PDS3</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>2S1</t>
+  </si>
+  <si>
+    <t>1S1</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>PGS1</t>
+  </si>
+  <si>
+    <t>TS1</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>1U1</t>
+  </si>
+  <si>
+    <t>1U2</t>
+  </si>
+  <si>
+    <t>UI5</t>
+  </si>
+  <si>
+    <t>UI6</t>
+  </si>
+  <si>
     <t>UI10</t>
   </si>
   <si>
-    <t>UI2</t>
-  </si>
-  <si>
-    <t>UI13</t>
-  </si>
-  <si>
-    <t>UI14</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>UI15</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>UO1</t>
-  </si>
-  <si>
-    <t>UO2</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>UI1</t>
-  </si>
-  <si>
-    <t>UI3</t>
-  </si>
-  <si>
-    <t>UI4</t>
-  </si>
-  <si>
-    <t>1Y1</t>
-  </si>
-  <si>
-    <t>Т1</t>
-  </si>
-  <si>
-    <t>S1F</t>
-  </si>
-  <si>
-    <t>PDS1</t>
-  </si>
-  <si>
-    <t>HLG1</t>
-  </si>
-  <si>
-    <t>HLR1</t>
-  </si>
-  <si>
-    <t>KM1</t>
-  </si>
-  <si>
-    <t>PDS3</t>
-  </si>
-  <si>
-    <t>Т2</t>
-  </si>
-  <si>
-    <t>2S1</t>
-  </si>
-  <si>
-    <t>1S1</t>
-  </si>
-  <si>
-    <t>EW1</t>
-  </si>
-  <si>
-    <t>EW6</t>
-  </si>
-  <si>
-    <t>PDS5</t>
-  </si>
-  <si>
-    <t>EA1</t>
-  </si>
-  <si>
-    <t>EA6</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>Y2</t>
+    <t>1U1A</t>
+  </si>
+  <si>
+    <t>UI11</t>
+  </si>
+  <si>
+    <t>1U2A</t>
+  </si>
+  <si>
+    <t>UI12</t>
+  </si>
+  <si>
+    <t>1U1C</t>
   </si>
   <si>
     <t>UO3</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>UO4</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>PGS1</t>
+    <t>1U2C</t>
   </si>
 </sst>
 </file>
@@ -472,118 +475,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>33</v>
@@ -591,41 +605,48 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -633,18 +654,18 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,35 +673,30 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Q1</t>
   </si>
@@ -57,9 +57,6 @@
     <t>UO1</t>
   </si>
   <si>
-    <t>UO2</t>
-  </si>
-  <si>
     <t>Q4</t>
   </si>
   <si>
@@ -120,12 +117,6 @@
     <t>T4</t>
   </si>
   <si>
-    <t>1U1</t>
-  </si>
-  <si>
-    <t>1U2</t>
-  </si>
-  <si>
     <t>UI5</t>
   </si>
   <si>
@@ -135,25 +126,34 @@
     <t>UI10</t>
   </si>
   <si>
-    <t>1U1A</t>
-  </si>
-  <si>
     <t>UI11</t>
   </si>
   <si>
-    <t>1U2A</t>
-  </si>
-  <si>
     <t>UI12</t>
   </si>
   <si>
-    <t>1U1C</t>
-  </si>
-  <si>
-    <t>UO3</t>
-  </si>
-  <si>
-    <t>1U2C</t>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>UI16</t>
+  </si>
+  <si>
+    <t>PDU</t>
+  </si>
+  <si>
+    <t>PDS2</t>
+  </si>
+  <si>
+    <t>PDS4</t>
+  </si>
+  <si>
+    <t>PDS9</t>
+  </si>
+  <si>
+    <t>Т3</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,40 +499,50 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,43 +550,52 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,28 +611,28 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1"/>
     </row>
@@ -622,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +649,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,15 +657,15 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,10 +684,13 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,24 +698,14 @@
         <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Q1</t>
   </si>
@@ -54,113 +54,125 @@
     <t>T2</t>
   </si>
   <si>
+    <t>UI1</t>
+  </si>
+  <si>
+    <t>Т1</t>
+  </si>
+  <si>
+    <t>S1F</t>
+  </si>
+  <si>
+    <t>PDS1</t>
+  </si>
+  <si>
+    <t>HLG1</t>
+  </si>
+  <si>
+    <t>HLR1</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>2S1</t>
+  </si>
+  <si>
+    <t>1S1</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>UI10</t>
+  </si>
+  <si>
+    <t>UI11</t>
+  </si>
+  <si>
+    <t>UI12</t>
+  </si>
+  <si>
+    <t>PDS3</t>
+  </si>
+  <si>
+    <t>UI3</t>
+  </si>
+  <si>
+    <t>UI4</t>
+  </si>
+  <si>
+    <t>UI5</t>
+  </si>
+  <si>
+    <t>UI6</t>
+  </si>
+  <si>
+    <t>PDS2</t>
+  </si>
+  <si>
+    <t>PDS4</t>
+  </si>
+  <si>
+    <t>PDS5</t>
+  </si>
+  <si>
+    <t>PGS1</t>
+  </si>
+  <si>
+    <t>Т3</t>
+  </si>
+  <si>
+    <t>Т4</t>
+  </si>
+  <si>
+    <t>Т5</t>
+  </si>
+  <si>
     <t>UO1</t>
   </si>
   <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>UI1</t>
-  </si>
-  <si>
-    <t>UI3</t>
-  </si>
-  <si>
-    <t>UI4</t>
+    <t>UO2</t>
+  </si>
+  <si>
+    <t>UO3</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>3Y1</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>1Y1</t>
   </si>
   <si>
-    <t>Т1</t>
-  </si>
-  <si>
-    <t>S1F</t>
-  </si>
-  <si>
-    <t>PDS1</t>
-  </si>
-  <si>
-    <t>HLG1</t>
-  </si>
-  <si>
-    <t>HLR1</t>
-  </si>
-  <si>
-    <t>KM1</t>
-  </si>
-  <si>
-    <t>PDS3</t>
-  </si>
-  <si>
-    <t>Т2</t>
-  </si>
-  <si>
-    <t>2S1</t>
-  </si>
-  <si>
-    <t>1S1</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>PGS1</t>
-  </si>
-  <si>
     <t>TS1</t>
   </si>
   <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>UI5</t>
-  </si>
-  <si>
-    <t>UI6</t>
-  </si>
-  <si>
-    <t>UI10</t>
-  </si>
-  <si>
-    <t>UI11</t>
-  </si>
-  <si>
-    <t>UI12</t>
+    <t>EA1</t>
+  </si>
+  <si>
+    <t>UI16</t>
+  </si>
+  <si>
+    <t>EW1</t>
   </si>
   <si>
     <t>Q5</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>UI16</t>
-  </si>
-  <si>
-    <t>PDU</t>
-  </si>
-  <si>
-    <t>PDS2</t>
-  </si>
-  <si>
-    <t>PDS4</t>
-  </si>
-  <si>
-    <t>PDS9</t>
-  </si>
-  <si>
-    <t>Т3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -171,16 +183,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,15 +213,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,74 +517,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A2:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -550,162 +579,170 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
@@ -718,6 +755,18 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Q1</t>
   </si>
@@ -90,12 +90,6 @@
     <t>UI11</t>
   </si>
   <si>
-    <t>UI12</t>
-  </si>
-  <si>
-    <t>PDS3</t>
-  </si>
-  <si>
     <t>UI3</t>
   </si>
   <si>
@@ -111,24 +105,12 @@
     <t>PDS2</t>
   </si>
   <si>
-    <t>PDS4</t>
-  </si>
-  <si>
     <t>PDS5</t>
   </si>
   <si>
-    <t>PGS1</t>
-  </si>
-  <si>
     <t>Т3</t>
   </si>
   <si>
-    <t>Т4</t>
-  </si>
-  <si>
-    <t>Т5</t>
-  </si>
-  <si>
     <t>UO1</t>
   </si>
   <si>
@@ -138,34 +120,46 @@
     <t>UO3</t>
   </si>
   <si>
-    <t>Y1</t>
-  </si>
-  <si>
     <t>Y3</t>
   </si>
   <si>
-    <t>3Y1</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>1Y1</t>
   </si>
   <si>
-    <t>TS1</t>
-  </si>
-  <si>
-    <t>EA1</t>
-  </si>
-  <si>
     <t>UI16</t>
   </si>
   <si>
-    <t>EW1</t>
-  </si>
-  <si>
     <t>Q5</t>
+  </si>
+  <si>
+    <t>2Y2</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Т6</t>
+  </si>
+  <si>
+    <t>Т7</t>
+  </si>
+  <si>
+    <t>UI17</t>
+  </si>
+  <si>
+    <t>UI18</t>
+  </si>
+  <si>
+    <t>2Y1</t>
+  </si>
+  <si>
+    <t>UO4</t>
+  </si>
+  <si>
+    <t>4Y1</t>
   </si>
 </sst>
 </file>
@@ -205,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -222,18 +216,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,235 +528,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C43"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
       <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
+      <c r="A25" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-    </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Q1</t>
   </si>
@@ -102,27 +102,12 @@
     <t>UI6</t>
   </si>
   <si>
-    <t>PDS2</t>
-  </si>
-  <si>
-    <t>PDS5</t>
-  </si>
-  <si>
-    <t>Т3</t>
-  </si>
-  <si>
     <t>UO1</t>
   </si>
   <si>
     <t>UO2</t>
   </si>
   <si>
-    <t>UO3</t>
-  </si>
-  <si>
-    <t>Y3</t>
-  </si>
-  <si>
     <t>1Y1</t>
   </si>
   <si>
@@ -132,41 +117,44 @@
     <t>Q5</t>
   </si>
   <si>
-    <t>2Y2</t>
-  </si>
-  <si>
     <t>Q4</t>
   </si>
   <si>
     <t>GND</t>
   </si>
   <si>
-    <t>Т6</t>
-  </si>
-  <si>
-    <t>Т7</t>
-  </si>
-  <si>
     <t>UI17</t>
   </si>
   <si>
     <t>UI18</t>
   </si>
   <si>
-    <t>2Y1</t>
-  </si>
-  <si>
-    <t>UO4</t>
-  </si>
-  <si>
-    <t>4Y1</t>
+    <t>KM1</t>
+  </si>
+  <si>
+    <t>PDS3</t>
+  </si>
+  <si>
+    <t>Т10</t>
+  </si>
+  <si>
+    <t>UI12</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>KK1</t>
+  </si>
+  <si>
+    <t>HEA1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -178,12 +166,39 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="9.5"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -199,12 +214,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -216,40 +283,49 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,260 +607,250 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="13" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
@@ -808,6 +874,10 @@
       <c r="B43" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A30" location="_bookmark17" display="_bookmark17"/>
+    <hyperlink ref="A31" location="_bookmark17" display="_bookmark17"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Q1</t>
   </si>
@@ -105,9 +105,6 @@
     <t>UO1</t>
   </si>
   <si>
-    <t>UO2</t>
-  </si>
-  <si>
     <t>1Y1</t>
   </si>
   <si>
@@ -135,26 +132,26 @@
     <t>PDS3</t>
   </si>
   <si>
-    <t>Т10</t>
-  </si>
-  <si>
     <t>UI12</t>
   </si>
   <si>
     <t>Y1</t>
   </si>
   <si>
-    <t>KK1</t>
-  </si>
-  <si>
-    <t>HEA1</t>
+    <t>PGS1</t>
+  </si>
+  <si>
+    <t>TS1</t>
+  </si>
+  <si>
+    <t>T4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -186,35 +183,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -274,29 +252,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -307,25 +272,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,244 +562,241 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="12" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B33" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
@@ -877,6 +829,35 @@
   <hyperlinks>
     <hyperlink ref="A30" location="_bookmark17" display="_bookmark17"/>
     <hyperlink ref="A31" location="_bookmark17" display="_bookmark17"/>
+    <hyperlink ref="A1" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A2" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A3" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A4" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A5" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A6" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A7" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A8" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A9" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A10" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A11" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A12" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A13" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A14" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A15" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A16" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A17" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A18" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A19" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A20" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A21" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A22" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A23" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A24" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A25" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A26" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A27" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A28" location="_bookmark10" display="_bookmark10"/>
+    <hyperlink ref="A33" location="_bookmark17" display="_bookmark17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Q1</t>
   </si>
@@ -120,12 +120,6 @@
     <t>GND</t>
   </si>
   <si>
-    <t>UI17</t>
-  </si>
-  <si>
-    <t>UI18</t>
-  </si>
-  <si>
     <t>KM1</t>
   </si>
   <si>
@@ -145,6 +139,42 @@
   </si>
   <si>
     <t>T4</t>
+  </si>
+  <si>
+    <t>1U1W</t>
+  </si>
+  <si>
+    <t>2U1W</t>
+  </si>
+  <si>
+    <t>PDS2</t>
+  </si>
+  <si>
+    <t>PDS4</t>
+  </si>
+  <si>
+    <t>PDS9</t>
+  </si>
+  <si>
+    <t>Т3</t>
+  </si>
+  <si>
+    <t>1U1A</t>
+  </si>
+  <si>
+    <t>2U1A</t>
+  </si>
+  <si>
+    <t>1U1C</t>
+  </si>
+  <si>
+    <t>2U1C</t>
+  </si>
+  <si>
+    <t>UO2</t>
+  </si>
+  <si>
+    <t>UO3</t>
   </si>
 </sst>
 </file>
@@ -562,238 +592,251 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="5"/>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>32</v>
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
@@ -826,39 +869,6 @@
       <c r="B43" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A30" location="_bookmark17" display="_bookmark17"/>
-    <hyperlink ref="A31" location="_bookmark17" display="_bookmark17"/>
-    <hyperlink ref="A1" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A2" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A3" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A4" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A5" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A6" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A7" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A8" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A9" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A10" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A11" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A12" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A13" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A14" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A15" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A16" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A17" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A18" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A19" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A20" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A21" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A22" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A23" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A24" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A25" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A26" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A27" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A28" location="_bookmark10" display="_bookmark10"/>
-    <hyperlink ref="A33" location="_bookmark17" display="_bookmark17"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Q1</t>
   </si>
@@ -123,58 +123,22 @@
     <t>KM1</t>
   </si>
   <si>
-    <t>PDS3</t>
-  </si>
-  <si>
     <t>UI12</t>
   </si>
   <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>PGS1</t>
-  </si>
-  <si>
-    <t>TS1</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>1U1W</t>
-  </si>
-  <si>
-    <t>2U1W</t>
-  </si>
-  <si>
     <t>PDS2</t>
   </si>
   <si>
-    <t>PDS4</t>
-  </si>
-  <si>
-    <t>PDS9</t>
-  </si>
-  <si>
     <t>Т3</t>
   </si>
   <si>
-    <t>1U1A</t>
-  </si>
-  <si>
-    <t>2U1A</t>
-  </si>
-  <si>
-    <t>1U1C</t>
-  </si>
-  <si>
-    <t>2U1C</t>
-  </si>
-  <si>
-    <t>UO2</t>
-  </si>
-  <si>
-    <t>UO3</t>
+    <t>TK1</t>
+  </si>
+  <si>
+    <t>Т5</t>
+  </si>
+  <si>
+    <t>3Y1</t>
   </si>
 </sst>
 </file>
@@ -592,7 +556,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,9 +591,6 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -640,9 +601,6 @@
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -667,40 +625,28 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -728,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,7 +682,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -744,15 +690,12 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1"/>
     </row>
@@ -784,9 +727,6 @@
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -815,24 +755,15 @@
         <v>27</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Q1</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>3Y1</t>
+  </si>
+  <si>
+    <t>ваы</t>
+  </si>
+  <si>
+    <t>увв</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>dff</t>
   </si>
 </sst>
 </file>
@@ -556,7 +571,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,6 +611,9 @@
       <c r="A6" t="s">
         <v>31</v>
       </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -606,11 +624,17 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -642,6 +666,9 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -760,14 +787,18 @@
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Q1</t>
   </si>
@@ -69,9 +69,6 @@
     <t>HLG1</t>
   </si>
   <si>
-    <t>HLR1</t>
-  </si>
-  <si>
     <t>Т2</t>
   </si>
   <si>
@@ -154,6 +151,18 @@
   </si>
   <si>
     <t>dff</t>
+  </si>
+  <si>
+    <t>UO2</t>
+  </si>
+  <si>
+    <t>ыв</t>
+  </si>
+  <si>
+    <t>ыввы</t>
+  </si>
+  <si>
+    <t>ывфывы</t>
   </si>
 </sst>
 </file>
@@ -571,7 +580,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,46 +603,49 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,35 +661,38 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,28 +716,28 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1"/>
     </row>
@@ -731,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -752,7 +767,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -768,27 +783,29 @@
         <v>10</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B31" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -797,7 +814,7 @@
     <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/Схема ПЛК.xlsx
+++ b/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Q1</t>
   </si>
@@ -123,46 +123,61 @@
     <t>UI12</t>
   </si>
   <si>
+    <t>UO2</t>
+  </si>
+  <si>
+    <t>PDS3</t>
+  </si>
+  <si>
+    <t>HLR1</t>
+  </si>
+  <si>
+    <t>1U1C</t>
+  </si>
+  <si>
+    <t>EW1</t>
+  </si>
+  <si>
+    <t>1U1W</t>
+  </si>
+  <si>
+    <t>2U1W</t>
+  </si>
+  <si>
     <t>PDS2</t>
   </si>
   <si>
+    <t>PDS4</t>
+  </si>
+  <si>
+    <t>PDS9</t>
+  </si>
+  <si>
     <t>Т3</t>
   </si>
   <si>
+    <t>EA1</t>
+  </si>
+  <si>
+    <t>1U1A</t>
+  </si>
+  <si>
+    <t>2U1A</t>
+  </si>
+  <si>
     <t>TK1</t>
   </si>
   <si>
-    <t>Т5</t>
-  </si>
-  <si>
-    <t>3Y1</t>
-  </si>
-  <si>
-    <t>ваы</t>
-  </si>
-  <si>
-    <t>увв</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>dff</t>
-  </si>
-  <si>
-    <t>UO2</t>
-  </si>
-  <si>
-    <t>ыв</t>
-  </si>
-  <si>
-    <t>ыввы</t>
-  </si>
-  <si>
-    <t>ывфывы</t>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>2U1C</t>
+  </si>
+  <si>
+    <t>UO3</t>
+  </si>
+  <si>
+    <t>UO4</t>
   </si>
 </sst>
 </file>
@@ -219,21 +234,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color rgb="FF000000"/>
@@ -270,31 +270,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -580,7 +588,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,42 +618,39 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,20 +674,23 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,13 +740,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -769,52 +780,59 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>47</v>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="7" t="s">
-        <v>43</v>
+      <c r="A33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
